--- a/static/bestelformulier.xlsx
+++ b/static/bestelformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petervanes/Documents/Lions/Wijnactie 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowanvh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8B5986-C653-634B-B27F-ADF4B0C7D8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F4C97-6A29-714A-BD2D-CA2A3EA2CA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="460" windowWidth="40960" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
@@ -20,18 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad2!$C$11:$C$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Blad2!$A$1:$I$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -229,12 +218,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="[$-813]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="[$-813]d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -645,8 +634,8 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
@@ -657,7 +646,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -674,10 +663,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,13 +685,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,7 +700,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +712,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -732,7 +721,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,7 +737,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -776,7 +765,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,19 +813,19 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -887,21 +876,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="3" builtinId="26"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -974,7 +963,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1300,7 +1289,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1620,161 +1609,161 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="14">
-        <v>7.95</v>
-      </c>
-      <c r="E15" s="15">
-        <f>6*D15</f>
-        <v>47.7</v>
-      </c>
-      <c r="F15" s="49"/>
+      <c r="D15" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="E15" s="22">
+        <f>+D15*6</f>
+        <v>45</v>
+      </c>
+      <c r="F15" s="65"/>
       <c r="G15" s="46"/>
-      <c r="H15" s="50">
-        <f t="shared" ref="H15" si="1">+E15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="30"/>
+      <c r="H15" s="66">
+        <f>+E15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="61"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="77"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="14">
         <v>7.5</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="14">
         <f>+D16*6</f>
         <v>45</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="66">
+      <c r="F16" s="49"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="50">
         <f>+E16*F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="61"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="14">
+    <row r="17" spans="1:14" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="14">
         <v>7.5</v>
       </c>
-      <c r="E17" s="14">
-        <f>+D17*6</f>
+      <c r="E18" s="14">
+        <f>+D18*6</f>
         <v>45</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="50">
-        <f>+E17*F17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="E19" s="14">
-        <f>+D19*6</f>
-        <v>45</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="31">
-        <f>+E19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="31">
+        <f>+E18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="64"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="E20" s="15">
+        <f>6*D20</f>
+        <v>75</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="50">
+        <f t="shared" ref="H20:H24" si="1">+E20*F20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="D21" s="24">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E21" s="68">
         <f>6*D21</f>
-        <v>75</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="50">
-        <f t="shared" ref="H21:H24" si="2">+E21*F21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="30"/>
+        <v>53.699999999999996</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="62"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1782,31 +1771,31 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="24">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E22" s="68">
+      <c r="D22" s="14">
+        <v>7.95</v>
+      </c>
+      <c r="E22" s="15">
         <f>6*D22</f>
-        <v>53.699999999999996</v>
-      </c>
-      <c r="F22" s="69"/>
+        <v>47.7</v>
+      </c>
+      <c r="F22" s="49"/>
       <c r="G22" s="46"/>
-      <c r="H22" s="70">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="62"/>
+      <c r="H22" s="50">
+        <f>+E22*F22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="30"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="77"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,7 +1816,7 @@
       <c r="F23" s="49"/>
       <c r="G23" s="46"/>
       <c r="H23" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="30"/>
@@ -1855,7 +1844,7 @@
       <c r="F24" s="49"/>
       <c r="G24" s="44"/>
       <c r="H24" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="30"/>
@@ -1916,15 +1905,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" ref="G27:I27" si="3">SUM(G11:G24)</f>
+        <f>SUM(G11:G24)</f>
         <v>0</v>
       </c>
       <c r="H27" s="80">
-        <f t="shared" si="3"/>
+        <f>SUM(H11:H24)</f>
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(I11:I24)</f>
         <v>0</v>
       </c>
       <c r="J27" s="7"/>
@@ -2184,13 +2173,13 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="E37" s="15">
-        <f t="shared" ref="E37" si="4">6*D37</f>
+        <f t="shared" ref="E37" si="2">6*D37</f>
         <v>53.699999999999996</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="44"/>
       <c r="H37" s="31">
-        <f t="shared" ref="H37" si="5">+E37*F37</f>
+        <f t="shared" ref="H37" si="3">+E37*F37</f>
         <v>0</v>
       </c>
       <c r="I37" s="30"/>
@@ -2251,13 +2240,13 @@
         <v>15.4</v>
       </c>
       <c r="E40" s="15">
-        <f t="shared" ref="E40" si="6">6*D40</f>
+        <f t="shared" ref="E40" si="4">6*D40</f>
         <v>92.4</v>
       </c>
       <c r="F40" s="49"/>
       <c r="G40" s="43"/>
       <c r="H40" s="50">
-        <f t="shared" ref="H40" si="7">+E40*F40</f>
+        <f t="shared" ref="H40" si="5">+E40*F40</f>
         <v>0</v>
       </c>
       <c r="I40" s="30"/>
@@ -2311,13 +2300,13 @@
         <v>11.95</v>
       </c>
       <c r="E42" s="15">
-        <f t="shared" ref="E42" si="8">6*D42</f>
+        <f t="shared" ref="E42" si="6">6*D42</f>
         <v>71.699999999999989</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="46"/>
       <c r="H42" s="50">
-        <f t="shared" ref="H42" si="9">+E42*F42</f>
+        <f t="shared" ref="H42" si="7">+E42*F42</f>
         <v>0</v>
       </c>
       <c r="I42" s="30"/>
@@ -2431,13 +2420,13 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="E46" s="15">
-        <f t="shared" ref="E46:E47" si="10">6*D46</f>
+        <f t="shared" ref="E46:E47" si="8">6*D46</f>
         <v>53.699999999999996</v>
       </c>
       <c r="F46" s="49"/>
       <c r="G46" s="46"/>
       <c r="H46" s="50">
-        <f t="shared" ref="H46:H47" si="11">+E46*F46</f>
+        <f t="shared" ref="H46:H47" si="9">+E46*F46</f>
         <v>0</v>
       </c>
       <c r="I46" s="30"/>
@@ -2461,13 +2450,13 @@
         <v>8.75</v>
       </c>
       <c r="E47" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="44"/>
       <c r="H47" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I47" s="30"/>
@@ -2616,15 +2605,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" ref="G54:I54" si="12">SUM(G31:G51)</f>
+        <f t="shared" ref="G54:I54" si="10">SUM(G31:G51)</f>
         <v>0</v>
       </c>
       <c r="H54" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J54" s="7"/>
@@ -2684,15 +2673,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" ref="G57:I57" si="13">G54+G27</f>
+        <f t="shared" ref="G57:I57" si="11">G54+G27</f>
         <v>0</v>
       </c>
       <c r="H57" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J57" s="7"/>

--- a/static/bestelformulier.xlsx
+++ b/static/bestelformulier.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowanvh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petervanes/Google Drive/Wijnactie 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F4C97-6A29-714A-BD2D-CA2A3EA2CA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8ABD3-0EC4-1649-A593-CC85F8F9298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20840" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
     <sheet name="Blad3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad2!$C$11:$C$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Blad2!$A$1:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad2!$C$11:$C$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Blad2!$A$1:$J$54</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>Prijs per fles</t>
   </si>
@@ -72,48 +83,21 @@
     <t>e-mail:</t>
   </si>
   <si>
-    <t>Vallee Blanche Viognier (6 fl)</t>
-  </si>
-  <si>
     <t>Despagne Biface (6 fl)</t>
   </si>
   <si>
     <t>Luigi Einaudi Barbera (6 fl)</t>
   </si>
   <si>
-    <t>Sassi Neri Conero Riserva DOCG - Montepulciano (per fl)</t>
-  </si>
-  <si>
-    <t>Tenuta Spinelli Eden Passerina (6 fl)</t>
-  </si>
-  <si>
-    <t>Tenuta Spinelli Artemisia Pecorino DOCG (6 fl)</t>
-  </si>
-  <si>
-    <t>Tenuta Spinelli Mèroe Metodo Classico Pecorino (per fl)</t>
-  </si>
-  <si>
     <t>Jose Galo Rueda Verdejo (6 fl)</t>
   </si>
   <si>
-    <t>Hunky Dory Pinot Grigio (6 fl)</t>
-  </si>
-  <si>
-    <t>Bodrumi I Vjeter (6 fl)</t>
-  </si>
-  <si>
     <t>Grenache Rose Nautique Gris (6 fl)</t>
   </si>
   <si>
-    <t>Marani Saperavi (6 fl)</t>
-  </si>
-  <si>
     <t>Gianni Tessari - Due Veneto (6 fl)</t>
   </si>
   <si>
-    <t>La Blaque Tradition Rouge (6 fl)</t>
-  </si>
-  <si>
     <t>Ezimit Pinot Grigio (6 fl)</t>
   </si>
   <si>
@@ -129,30 +113,15 @@
     <t>Prijs per doos (6 flessen) *</t>
   </si>
   <si>
-    <t>Rosso Conero DOC - Montepulciano (6 fl)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datum: </t>
   </si>
   <si>
     <t>Behandeld door Lionslid:</t>
   </si>
   <si>
-    <t>Villa Giada Mane Chardonnay / Cortese(6 fl)</t>
-  </si>
-  <si>
     <t>Quinta das Setencostas Tinto (6 fl)</t>
   </si>
   <si>
-    <t>Ermita Veracruz Verdejo Vinas Jovenes (6fl)</t>
-  </si>
-  <si>
-    <t>Gustave Lorentz Pinot Blanc Reserve (6 fl)</t>
-  </si>
-  <si>
-    <t>Soort</t>
-  </si>
-  <si>
     <t>Rood</t>
   </si>
   <si>
@@ -174,33 +143,9 @@
     <t>Dessertwijn</t>
   </si>
   <si>
-    <t>Venec - Temjanika Macedonie (6 fl)</t>
-  </si>
-  <si>
     <t>Croft Reserve Tawny (per fl)</t>
   </si>
   <si>
-    <t>La Dame de Chatenoy Menetou-Salon Sauvignon Blanc (per fl)</t>
-  </si>
-  <si>
-    <t>Prinz Riesling Trocken (Biologisch) (6 fl)</t>
-  </si>
-  <si>
-    <t>El Perdiguerro Barrica - Tempranillo (6 fl)</t>
-  </si>
-  <si>
-    <t>Dom. Sauveroy Cuvee Andecaves 2017 Cabernet Franc (6 fl)</t>
-  </si>
-  <si>
-    <t>Chemin des Geants - Merlot (6 fl)</t>
-  </si>
-  <si>
-    <t>Gustave Lorentz Crement D'Alsace Brut  (per fl)</t>
-  </si>
-  <si>
-    <t>Lionsclub Hilversum               Wijnactie 2020-2021</t>
-  </si>
-  <si>
     <t>TOTAAL      IL DIVINO</t>
   </si>
   <si>
@@ -211,19 +156,146 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAAL      </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Druivensoort</t>
+  </si>
+  <si>
+    <t>Barbera</t>
+  </si>
+  <si>
+    <t>Montepulciano</t>
+  </si>
+  <si>
+    <t>Tempranillo</t>
+  </si>
+  <si>
+    <t>Fattoria Le Terrazze Rosso Conero DOC (6 fl)</t>
+  </si>
+  <si>
+    <t>castelão (periquita), camarate, tinta miúda, pretomartinho</t>
+  </si>
+  <si>
+    <t>Cabernet Franc</t>
+  </si>
+  <si>
+    <t>El Perdiguerro Reserva (6 fl)</t>
+  </si>
+  <si>
+    <t>Morgenster Lourens River Valley (per fl)</t>
+  </si>
+  <si>
+    <t>Barón de Ley Tres Viñas (per fl)</t>
+  </si>
+  <si>
+    <t>Pecorino</t>
+  </si>
+  <si>
+    <t>Vallée Blanche (6 fl)</t>
+  </si>
+  <si>
+    <t>Domaine Sauveroy Cuvée Origine (6 fl)</t>
+  </si>
+  <si>
+    <t>Kurt Angener Kies Grüner Veltliner (6 fl)</t>
+  </si>
+  <si>
+    <t>La Blaque Tradition Rouge Bio (6 fl)</t>
+  </si>
+  <si>
+    <t>Iveriuli Saperavi Georgie (6 fl)</t>
+  </si>
+  <si>
+    <t>Mario del Conte Brindisi (6 fl)</t>
+  </si>
+  <si>
+    <t>Hunky Dory Pinot Grigio Bio (6 fl)</t>
+  </si>
+  <si>
+    <t>Sierra del Mugron Chardonnay Bio (6 fl)</t>
+  </si>
+  <si>
+    <t>Speciale vermelding: (extra) donatie voor de goede doelen</t>
+  </si>
+  <si>
+    <t>Lionsclub Hilversum               Wijnactie 2021</t>
+  </si>
+  <si>
+    <t>Tenuta Spinelli Artemisia Offida DOCG (6 fl)</t>
+  </si>
+  <si>
+    <t>Tenuta Spinelli Mèroe Metodo Classico (per fl)</t>
+  </si>
+  <si>
+    <t>Merlot, Cabernet Sauvignon, Cabernet Franc, Petit Verdot</t>
+  </si>
+  <si>
+    <t>Viognier</t>
+  </si>
+  <si>
+    <t>Chenin Blanc</t>
+  </si>
+  <si>
+    <t>Sauvignon Blanc, Semillion</t>
+  </si>
+  <si>
+    <t>Grüner Veltliner</t>
+  </si>
+  <si>
+    <t>Viura, Malvasia, Garnacha Blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touriga Nacional, Touriga Francesa, Tinta Roriz </t>
+  </si>
+  <si>
+    <t>Domaine Sauveroy Cuvée Antique (6 fl)</t>
+  </si>
+  <si>
+    <t>Syrah , Grenache</t>
+  </si>
+  <si>
+    <t>Cabertnet France , Merlot</t>
+  </si>
+  <si>
+    <t>Saperavi</t>
+  </si>
+  <si>
+    <t>Negroamaro</t>
+  </si>
+  <si>
+    <t>Vranec</t>
+  </si>
+  <si>
+    <t>Merlot, Cabernet Sauvignon</t>
+  </si>
+  <si>
+    <t>Grenache</t>
+  </si>
+  <si>
+    <t>Pinot Grigio</t>
+  </si>
+  <si>
+    <t>Chardonnay</t>
+  </si>
+  <si>
+    <t>Verdejo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="[$-813]d\ mmmm\ yyyy;@"/>
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="[$-813]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -366,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -610,35 +682,69 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,7 +752,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -660,13 +766,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,16 +785,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,7 +794,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,7 +806,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -721,7 +815,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +831,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -765,18 +859,12 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,12 +883,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -810,46 +892,21 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,6 +915,81 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -876,21 +1008,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Goed" xfId="3" builtinId="26"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -914,7 +1046,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>33103</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>135949</xdr:rowOff>
@@ -963,7 +1095,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1286,70 +1418,73 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="7"/>
+    <row r="1" spans="1:15" ht="35" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1357,17 +1492,18 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1375,17 +1511,18 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1393,17 +1530,18 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1411,17 +1549,18 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1429,1268 +1568,1315 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="59" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="57" t="s">
+      <c r="E10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="H10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="I10" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="J10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="14">
-        <v>13.95</v>
-      </c>
-      <c r="E11" s="15">
-        <f>6*D11</f>
-        <v>83.699999999999989</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="50">
-        <f>+E11*F11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="7"/>
+      <c r="D11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="13">
+        <f>F11/6</f>
+        <v>14.833333333333334</v>
+      </c>
+      <c r="F11" s="14">
+        <v>89</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="46">
+        <f>+F11*G11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="26"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="13">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E12" s="14">
-        <f>+D12*6</f>
+      <c r="F12" s="13">
+        <f>+E12*6</f>
         <v>59.699999999999996</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="50">
-        <f>+E12*F12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="7"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="46">
+        <f>+F12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="28"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="13">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E13" s="15">
-        <f>6*D13</f>
+      <c r="F13" s="14">
+        <f>6*E13</f>
         <v>59.699999999999996</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="50">
-        <f t="shared" ref="H13" si="0">+E13*F13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="7"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="46">
+        <f t="shared" ref="I13" si="0">+F13*G13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="26"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
-      <c r="B14" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="14">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E14" s="14">
-        <f>+D14*6</f>
-        <v>53.699999999999996</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="50">
-        <f>+E14*F14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="13">
+        <v>8.25</v>
+      </c>
+      <c r="F14" s="13">
+        <f>+E14*6</f>
+        <v>49.5</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="46">
+        <f>+F14*G14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="26"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="13">
         <v>7.5</v>
       </c>
-      <c r="E15" s="22">
-        <f>+D15*6</f>
+      <c r="F15" s="14">
+        <f>6*E15</f>
         <v>45</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="66">
-        <f>+E15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="7"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="46">
+        <f t="shared" ref="I15" si="1">+F15*G15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="26"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="N15" s="61"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="13">
         <v>7.5</v>
       </c>
-      <c r="E16" s="14">
-        <f>+D16*6</f>
+      <c r="F16" s="13">
+        <f>+E16*6</f>
         <v>45</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="50">
-        <f>+E16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="7"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="46">
+        <f>+F16*G16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="26"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="B18" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="13">
         <v>7.5</v>
       </c>
-      <c r="E18" s="14">
-        <f>+D18*6</f>
+      <c r="F18" s="13">
+        <f>+E18*6</f>
         <v>45</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="31">
-        <f>+E18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="7"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="27">
+        <f>+F18*G18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="32"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="B20" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="13">
         <v>12.5</v>
       </c>
-      <c r="E20" s="15">
-        <f>6*D20</f>
+      <c r="F20" s="14">
+        <f>6*E20</f>
         <v>75</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="50">
-        <f t="shared" ref="H20:H24" si="1">+E20*F20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="7"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="46">
+        <f t="shared" ref="I20:I24" si="2">+F20*G20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="26"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="24">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E21" s="68">
-        <f>6*D21</f>
-        <v>53.699999999999996</v>
-      </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="B21" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="F21" s="14">
+        <f>6*E21</f>
+        <v>41.7</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="54"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="20">
         <v>7.95</v>
       </c>
-      <c r="E22" s="15">
-        <f>6*D22</f>
+      <c r="F22" s="58">
+        <f>6*E22</f>
         <v>47.7</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="50">
-        <f>+E22*F22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="7"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="54"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="77"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="71" t="s">
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="D23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="13">
         <v>7.5</v>
       </c>
-      <c r="E23" s="15">
-        <f>6*D23</f>
+      <c r="F23" s="14">
+        <f>6*E23</f>
         <v>45</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="26"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="B24" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="13">
         <v>7.5</v>
       </c>
-      <c r="E24" s="14">
-        <f>+D24*6</f>
+      <c r="F24" s="13">
+        <f>+E24*6</f>
         <v>45</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="7"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="26"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="H26" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="I26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="5">
-        <f>SUM(F11:F24)</f>
-        <v>0</v>
-      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="5">
         <f>SUM(G11:G24)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="80">
+      <c r="H27" s="5">
         <f>SUM(H11:H24)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="63">
         <f>SUM(I11:I24)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="5">
+        <f>SUM(J11:J24)</f>
+        <v>0</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="7"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="7"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" ht="58.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="57" t="s">
+      <c r="E30" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="J30" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" ht="40" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>18</v>
       </c>
-      <c r="B31" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="14">
-        <v>24.75</v>
-      </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="31">
-        <f>G31*D31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="7"/>
+      <c r="B31" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="13">
+        <v>21.25</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="27">
+        <f>H31*E31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="26"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" ht="40" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>17</v>
       </c>
-      <c r="B32" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="14">
-        <v>17.95</v>
-      </c>
-      <c r="E32" s="15">
-        <f>6*D32</f>
-        <v>107.69999999999999</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="31">
-        <f>+E32*F32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="7"/>
+      <c r="B32" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="13">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F32" s="14">
+        <f>6*E32</f>
+        <v>53.699999999999996</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="27">
+        <f>+F32*G32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="26"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>16</v>
       </c>
-      <c r="B33" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="14">
-        <v>12.95</v>
-      </c>
-      <c r="E33" s="15">
-        <f>6*D33</f>
-        <v>77.699999999999989</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="31">
-        <f>+E33*F33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="7"/>
+      <c r="B33" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="13">
+        <v>10.25</v>
+      </c>
+      <c r="F33" s="14">
+        <f>6*E33</f>
+        <v>61.5</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="27">
+        <f>+F33*G33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="26"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>15</v>
       </c>
-      <c r="B34" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="14">
-        <v>12.45</v>
-      </c>
-      <c r="E34" s="15">
-        <f>6*D34</f>
-        <v>74.699999999999989</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="31">
-        <f>+E34*F34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="7"/>
+      <c r="B34" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="F34" s="14">
+        <f>6*E34</f>
+        <v>69</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="27">
+        <f>+F34*G34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="26"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>14</v>
       </c>
-      <c r="B35" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="14">
-        <v>9.4</v>
-      </c>
-      <c r="E35" s="15">
-        <f>6*D35</f>
-        <v>56.400000000000006</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="31">
-        <f>+E35*F35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="7"/>
+      <c r="B35" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="F35" s="14">
+        <f>6*E35</f>
+        <v>76.5</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="27">
+        <f>+F35*G35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="26"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>13</v>
       </c>
-      <c r="B36" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="14">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E36" s="15">
-        <f>6*D36</f>
-        <v>53.699999999999996</v>
-      </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="31">
-        <f>+E36*F36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="7"/>
+      <c r="E36" s="13">
+        <v>18.95</v>
+      </c>
+      <c r="F36" s="14">
+        <f>6*E36</f>
+        <v>113.69999999999999</v>
+      </c>
+      <c r="G36" s="38"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="27">
+        <f>+F36*G36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="26"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>12</v>
-      </c>
-      <c r="B37" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="14">
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>11</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="13">
+        <v>17.95</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="27">
+        <f>H38*E38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>10</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="13">
         <v>8.9499999999999993</v>
       </c>
-      <c r="E37" s="15">
-        <f t="shared" ref="E37" si="2">6*D37</f>
+      <c r="F39" s="14">
+        <f t="shared" ref="F39" si="3">6*E39</f>
         <v>53.699999999999996</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="31">
-        <f t="shared" ref="H37" si="3">+E37*F37</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="79"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>11</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="14">
-        <v>17.95</v>
-      </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="31">
-        <f>G39*D39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="7"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="46">
+        <f t="shared" ref="I39" si="4">+F39*G39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="26"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
-        <v>10</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="14">
-        <v>15.4</v>
-      </c>
-      <c r="E40" s="15">
-        <f t="shared" ref="E40" si="4">6*D40</f>
-        <v>92.4</v>
-      </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="50">
-        <f t="shared" ref="H40" si="5">+E40*F40</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="13">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F40" s="14">
+        <f>6*E40</f>
+        <v>53.699999999999996</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="46">
+        <f>+F40*G40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="26"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
-        <v>9</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="14">
-        <v>14.4</v>
-      </c>
-      <c r="E41" s="15">
-        <f>6*D41</f>
-        <v>86.4</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="50">
-        <f>+E41*F41</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="13">
+        <v>11.25</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" ref="F41" si="5">6*E41</f>
+        <v>67.5</v>
+      </c>
+      <c r="G41" s="45"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="46">
+        <f t="shared" ref="I41" si="6">+F41*G41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="26"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
-        <v>8</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="14">
+        <v>7</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="13">
         <v>11.95</v>
       </c>
-      <c r="E42" s="15">
-        <f t="shared" ref="E42" si="6">6*D42</f>
+      <c r="F42" s="14">
+        <f>6*E42</f>
         <v>71.699999999999989</v>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="50">
-        <f t="shared" ref="H42" si="7">+E42*F42</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="7"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="46">
+        <f>+F42*G42</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="26"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
-        <v>7</v>
-      </c>
-      <c r="B43" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="14">
-        <v>10.95</v>
-      </c>
-      <c r="E43" s="15">
-        <f>6*D43</f>
-        <v>65.699999999999989</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="50">
-        <f>+E43*F43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B43" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="13">
+        <v>12.95</v>
+      </c>
+      <c r="F43" s="14">
+        <f>6*E43</f>
+        <v>77.699999999999989</v>
+      </c>
+      <c r="G43" s="45"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="46">
+        <f>+F43*G43</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="26"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
-        <v>6</v>
-      </c>
-      <c r="B44" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="14">
-        <v>10.5</v>
-      </c>
-      <c r="E44" s="15">
-        <f>6*D44</f>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="68"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>1</v>
+      </c>
+      <c r="B45" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="50">
-        <f>+E44*F44</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
-        <v>5</v>
-      </c>
-      <c r="B45" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="14">
-        <v>10.25</v>
-      </c>
-      <c r="E45" s="15">
-        <f>6*D45</f>
-        <v>61.5</v>
-      </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="50">
-        <f>+E45*F45</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="7"/>
+      <c r="C45" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="13">
+        <v>18.25</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="27">
+        <f>H45*E45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="26"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="40" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
-        <v>4</v>
-      </c>
-      <c r="B46" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="14">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E46" s="15">
-        <f t="shared" ref="E46:E47" si="8">6*D46</f>
-        <v>53.699999999999996</v>
+        <v>19</v>
+      </c>
+      <c r="B46" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="13">
+        <v>17.95</v>
       </c>
       <c r="F46" s="49"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="50">
-        <f t="shared" ref="H46:H47" si="9">+E46*F46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="7"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="27">
+        <f>H46*E46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="26"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>3</v>
-      </c>
-      <c r="B47" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="14">
-        <v>8.75</v>
-      </c>
-      <c r="E47" s="15">
-        <f t="shared" si="8"/>
-        <v>52.5</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B48" s="77"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-    </row>
-    <row r="49" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
-        <v>2</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="14">
-        <v>18.75</v>
-      </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="31">
-        <f>G49*D49</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="37"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="5">
+        <f>SUM(G31:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <f>SUM(H31:H46)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="63">
+        <f>SUM(I31:I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>SUM(J31:J46)</f>
+        <v>0</v>
+      </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
-        <v>1</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="14">
-        <v>18.25</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="31">
-        <f>G50*D50</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="30"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
-        <v>19</v>
-      </c>
-      <c r="B51" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="14">
-        <v>17.95</v>
-      </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="31">
-        <f>G51*D51</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="30"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15" ht="10.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+      <c r="B52" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="85">
+        <f>G52</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="86"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="41"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:15" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="5">
-        <f>SUM(F31:F51)</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="5">
-        <f t="shared" ref="G54:I54" si="10">SUM(G31:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="37"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-    </row>
-    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="7"/>
+      <c r="B56" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="5">
+        <f>G49+G27</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <f>H49+H27</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="63">
+        <f>I27+I49+I52</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <f>J49+J27</f>
+        <v>0</v>
+      </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-    </row>
-    <row r="57" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
-      <c r="B57" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="5">
-        <f>F54+F27</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
-        <f t="shared" ref="G57:I57" si="11">G54+G27</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2705,8 +2891,9 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2721,8 +2908,9 @@
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2737,8 +2925,9 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2753,8 +2942,9 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2769,33 +2959,19 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
+      <c r="O62" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
+  <mergeCells count="9">
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>

--- a/static/bestelformulier.xlsx
+++ b/static/bestelformulier.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petervanes/Google Drive/Wijnactie 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Google Drive\Lions Hilversum\WijnCie 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8ABD3-0EC4-1649-A593-CC85F8F9298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433FB83-D177-4EDE-90D8-7CB391E5E260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20840" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad2" sheetId="2" r:id="rId1"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId2"/>
+    <sheet name="Bestellijst" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad2!$C$11:$C$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Blad2!$A$1:$J$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bestellijst!$C$11:$C$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Bestellijst!$A$1:$J$56</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>Prijs per fles</t>
   </si>
@@ -59,15 +58,9 @@
     <t>flessen</t>
   </si>
   <si>
-    <t>IL DIVINO</t>
-  </si>
-  <si>
     <t>Nalevering</t>
   </si>
   <si>
-    <t>JOOST WIJN</t>
-  </si>
-  <si>
     <t>Naam koper:</t>
   </si>
   <si>
@@ -83,33 +76,15 @@
     <t>e-mail:</t>
   </si>
   <si>
-    <t>Despagne Biface (6 fl)</t>
-  </si>
-  <si>
     <t>Luigi Einaudi Barbera (6 fl)</t>
   </si>
   <si>
     <t>Jose Galo Rueda Verdejo (6 fl)</t>
   </si>
   <si>
-    <t>Grenache Rose Nautique Gris (6 fl)</t>
-  </si>
-  <si>
     <t>Gianni Tessari - Due Veneto (6 fl)</t>
   </si>
   <si>
-    <t>Ezimit Pinot Grigio (6 fl)</t>
-  </si>
-  <si>
-    <t>Ezimit Viognier (6 fl)</t>
-  </si>
-  <si>
-    <t>Ezimit Vranec (6 fl)</t>
-  </si>
-  <si>
-    <t>Ezimit Merlot &amp; Cabernet Sauvignon (6 fl)</t>
-  </si>
-  <si>
     <t>Prijs per doos (6 flessen) *</t>
   </si>
   <si>
@@ -131,18 +106,9 @@
     <t>Rose</t>
   </si>
   <si>
-    <t>Special Rood</t>
-  </si>
-  <si>
-    <t>Special Wit</t>
-  </si>
-  <si>
     <t>Bubbels</t>
   </si>
   <si>
-    <t>Dessertwijn</t>
-  </si>
-  <si>
     <t>Croft Reserve Tawny (per fl)</t>
   </si>
   <si>
@@ -185,103 +151,127 @@
     <t>El Perdiguerro Reserva (6 fl)</t>
   </si>
   <si>
-    <t>Morgenster Lourens River Valley (per fl)</t>
-  </si>
-  <si>
-    <t>Barón de Ley Tres Viñas (per fl)</t>
-  </si>
-  <si>
     <t>Pecorino</t>
   </si>
   <si>
     <t>Vallée Blanche (6 fl)</t>
   </si>
   <si>
-    <t>Domaine Sauveroy Cuvée Origine (6 fl)</t>
-  </si>
-  <si>
     <t>Kurt Angener Kies Grüner Veltliner (6 fl)</t>
   </si>
   <si>
-    <t>La Blaque Tradition Rouge Bio (6 fl)</t>
-  </si>
-  <si>
-    <t>Iveriuli Saperavi Georgie (6 fl)</t>
-  </si>
-  <si>
-    <t>Mario del Conte Brindisi (6 fl)</t>
-  </si>
-  <si>
-    <t>Hunky Dory Pinot Grigio Bio (6 fl)</t>
-  </si>
-  <si>
-    <t>Sierra del Mugron Chardonnay Bio (6 fl)</t>
-  </si>
-  <si>
     <t>Speciale vermelding: (extra) donatie voor de goede doelen</t>
   </si>
   <si>
-    <t>Lionsclub Hilversum               Wijnactie 2021</t>
-  </si>
-  <si>
     <t>Tenuta Spinelli Artemisia Offida DOCG (6 fl)</t>
   </si>
   <si>
-    <t>Tenuta Spinelli Mèroe Metodo Classico (per fl)</t>
-  </si>
-  <si>
-    <t>Merlot, Cabernet Sauvignon, Cabernet Franc, Petit Verdot</t>
-  </si>
-  <si>
     <t>Viognier</t>
   </si>
   <si>
-    <t>Chenin Blanc</t>
-  </si>
-  <si>
-    <t>Sauvignon Blanc, Semillion</t>
-  </si>
-  <si>
     <t>Grüner Veltliner</t>
   </si>
   <si>
-    <t>Viura, Malvasia, Garnacha Blanca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Touriga Nacional, Touriga Francesa, Tinta Roriz </t>
   </si>
   <si>
     <t>Domaine Sauveroy Cuvée Antique (6 fl)</t>
   </si>
   <si>
-    <t>Syrah , Grenache</t>
-  </si>
-  <si>
-    <t>Cabertnet France , Merlot</t>
-  </si>
-  <si>
-    <t>Saperavi</t>
-  </si>
-  <si>
-    <t>Negroamaro</t>
-  </si>
-  <si>
-    <t>Vranec</t>
-  </si>
-  <si>
-    <t>Merlot, Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Grenache</t>
-  </si>
-  <si>
-    <t>Pinot Grigio</t>
-  </si>
-  <si>
     <t>Chardonnay</t>
   </si>
   <si>
     <t>Verdejo</t>
+  </si>
+  <si>
+    <t>Lionsclub Hilversum               Wijnactie 2022</t>
+  </si>
+  <si>
+    <t>Chardonnay, Chenin Blanc, Grolleau Gris</t>
+  </si>
+  <si>
+    <t>Domaine Sauveroy L'Instant Présent Brut Crémant de Loire (per fl)</t>
+  </si>
+  <si>
+    <t>Berticot Cuvée Première Sauvignon Blanc (6 fl)</t>
+  </si>
+  <si>
+    <t>Sauvignon Blanc</t>
+  </si>
+  <si>
+    <t>Colossal Reserva Branco (per fl)</t>
+  </si>
+  <si>
+    <t>Chardonnay, Arinta</t>
+  </si>
+  <si>
+    <t>Louis Jadot Mâcon Villages Grange Magnien (6fl)</t>
+  </si>
+  <si>
+    <t>Corvina, Corvinone, Rondinella, Croatina, Oseleta</t>
+  </si>
+  <si>
+    <t>Tenuta Sant Antonia Valpolicella Ripasso Monti Garbi (6 fl)</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Château Favray Pouilly-Fumé AOC (6 fl)</t>
+  </si>
+  <si>
+    <t>Nugan Estate - 3rd Gen. Chardonnay (6 fl)</t>
+  </si>
+  <si>
+    <t>Camporeale Ripasso Valpolicella Classico (6 fl.)</t>
+  </si>
+  <si>
+    <t>Valpolicella</t>
+  </si>
+  <si>
+    <t>Unico Brindisi Riserva Puglia (6 fl)</t>
+  </si>
+  <si>
+    <t>80% Negroamaro, 20% Primitivo</t>
+  </si>
+  <si>
+    <t>Matayac Cahors Malbec AOC (6 fl)</t>
+  </si>
+  <si>
+    <t>Malbec</t>
+  </si>
+  <si>
+    <t>L'Excellence de Bonassia - AOC Beni M'Tir (6 fl.)</t>
+  </si>
+  <si>
+    <t>Cabernet France , Merlot</t>
+  </si>
+  <si>
+    <t>Cabernet Sauvignon, Merlot</t>
+  </si>
+  <si>
+    <t>Domaine Gayolle Les Platanes Rosé (6 fl.)</t>
+  </si>
+  <si>
+    <t>Grenache, Cinsault, Cabernet</t>
+  </si>
+  <si>
+    <t>Bogdanusja</t>
+  </si>
+  <si>
+    <t>Viña Caric Bogdanusja (6 fl.)</t>
+  </si>
+  <si>
+    <t>Ca'n Leandro La Vella (6fl.)</t>
+  </si>
+  <si>
+    <t>Merseguera, Malvasia, Tortosi</t>
+  </si>
+  <si>
+    <t>Bedin Prosecco Spumante Brut (6 fl.)</t>
+  </si>
+  <si>
+    <t>Prosecco</t>
   </si>
 </sst>
 </file>
@@ -289,15 +279,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="[$-813]d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="[$-813]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +384,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -438,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -737,14 +735,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,24 +766,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,19 +797,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,16 +815,16 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,13 +834,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -850,16 +859,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,36 +880,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,61 +914,55 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -981,22 +971,41 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1008,20 +1017,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1091,6 +1101,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>648269</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2627194</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>723144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601CF3AD-1FDD-5645-E392-77B63557F3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1015053" y="8674859"/>
+          <a:ext cx="1978925" cy="671964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>759158</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>255895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1902157</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>733290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Il diVino Wijnen | Reviews en ervaringen Il diVino Wijnen ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5408B9-815B-B9FD-71CA-2C0FE632657D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1125942" y="2772201"/>
+          <a:ext cx="1142999" cy="741820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1418,73 +1550,73 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="2" max="2" width="52.796875" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" customWidth="1"/>
+    <col min="6" max="7" width="13.296875" customWidth="1"/>
+    <col min="8" max="8" width="9.296875" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
+    <row r="1" spans="1:15" ht="33.85" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
-      <c r="B2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
+      <c r="B3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1494,16 +1626,16 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="93"/>
+      <c r="B4" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1513,16 +1645,16 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1532,16 +1664,16 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
+      <c r="B6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1551,16 +1683,16 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
+      <c r="B7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1570,1208 +1702,1171 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
+      <c r="B8" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.95" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="59" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:15" ht="59.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="C10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="13">
+    <row r="11" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="11">
         <f>F11/6</f>
-        <v>14.833333333333334</v>
-      </c>
-      <c r="F11" s="14">
-        <v>89</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="46">
+        <v>9.35</v>
+      </c>
+      <c r="F11" s="12">
+        <v>56.1</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="41">
         <f>+F11*G11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="13">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F12" s="13">
-        <f>+E12*6</f>
-        <v>59.699999999999996</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="46">
+    <row r="12" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="11">
+        <f>F12/6</f>
+        <v>9.5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>57</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="41">
         <f>+F12*G12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="13">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F13" s="14">
-        <f>6*E13</f>
-        <v>59.699999999999996</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="46">
-        <f t="shared" ref="I13" si="0">+F13*G13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="26"/>
+    <row r="13" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" ref="E13:E23" si="0">F13/6</f>
+        <v>9.9500000000000011</v>
+      </c>
+      <c r="F13" s="11">
+        <v>59.7</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="41">
+        <f>+F13*G13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="13">
-        <v>8.25</v>
-      </c>
-      <c r="F14" s="13">
-        <f>+E14*6</f>
-        <v>49.5</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="46">
-        <f>+F14*G14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="26"/>
+    <row r="14" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" ref="E14" si="1">F14/6</f>
+        <v>17.95</v>
+      </c>
+      <c r="F14" s="11">
+        <v>107.7</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="41">
+        <f t="shared" ref="I14" si="2">+F14*G14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="23"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="F15" s="14">
-        <f>6*E15</f>
-        <v>45</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="46">
-        <f t="shared" ref="I15" si="1">+F15*G15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="26"/>
+    <row r="15" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="F15" s="11">
+        <v>51</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="41">
+        <f>+F15*G15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="23"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="61"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="81" t="s">
+    <row r="16" spans="1:15" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="11">
+        <f>F17/6</f>
+        <v>9.75</v>
+      </c>
+      <c r="F17" s="11">
+        <v>58.5</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="24">
+        <f>+F17*G17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="F16" s="13">
-        <f>+E16*6</f>
-        <v>45</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="46">
-        <f>+F16*G16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="F18" s="13">
-        <f>+E18*6</f>
-        <v>45</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="27">
-        <f>+F18*G18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="13">
-        <v>12.5</v>
-      </c>
-      <c r="F20" s="14">
-        <f>6*E20</f>
+      <c r="E19" s="11">
+        <f>F19/6</f>
+        <v>9.9500000000000011</v>
+      </c>
+      <c r="F19" s="11">
+        <v>59.7</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="24">
+        <f>+F19*G19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" s="7" customFormat="1" ht="11.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="46">
-        <f t="shared" ref="I20:I24" si="2">+F20*G20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="20">
-        <v>6.95</v>
-      </c>
-      <c r="F21" s="14">
-        <f>6*E21</f>
-        <v>41.7</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="54"/>
+      <c r="C21" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="11">
+        <f>F21/6</f>
+        <v>11.5</v>
+      </c>
+      <c r="F21" s="12">
+        <v>69</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="41">
+        <f t="shared" ref="I21:I25" si="3">+F21*G21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="23"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="20">
-        <v>7.95</v>
-      </c>
-      <c r="F22" s="58">
-        <f>6*E22</f>
-        <v>47.7</v>
-      </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="54"/>
+    <row r="22" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
+      <c r="B22" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="F22" s="12">
+        <v>51</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="48"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
       <c r="B23" s="69" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="F23" s="14">
-        <f>6*E23</f>
-        <v>45</v>
-      </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
+      <c r="F23" s="51">
+        <v>47.7</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="48"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="81" t="s">
+    <row r="24" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="F24" s="13">
-        <f>+E24*6</f>
-        <v>45</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="26"/>
+      <c r="D24" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" ref="E24" si="4">F24/6</f>
+        <v>17.95</v>
+      </c>
+      <c r="F24" s="51">
+        <v>107.7</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="53">
+        <f t="shared" ref="I24" si="5">+F24*G24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="48"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
+    <row r="25" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="11">
+        <f>F25/6</f>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="F25" s="11">
+        <v>83.7</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="23"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="37"/>
+    <row r="26" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="18.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
-      <c r="B27" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="5">
-        <f>SUM(G11:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <f>SUM(H11:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="63">
-        <f>SUM(I11:I24)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <f>SUM(J11:J24)</f>
-        <v>0</v>
-      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="34"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="B28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5">
+        <f>SUM(G11:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>SUM(H11:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="55">
+        <f>SUM(I11:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>SUM(J11:J25)</f>
+        <v>0</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="18.3" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="58.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>8</v>
-      </c>
+    <row r="30" spans="1:15" ht="20.45" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="40" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>18</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="13">
-        <v>21.25</v>
-      </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="27">
-        <f>H31*E31</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="26"/>
+    <row r="31" spans="1:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="40" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>17</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="13">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="F32" s="14">
-        <f>6*E32</f>
-        <v>53.699999999999996</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="27">
-        <f>+F32*G32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="26"/>
+    <row r="32" spans="1:15" ht="36.549999999999997" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="11">
+        <v>13.75</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="24">
+        <f>H32*E32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="23"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>16</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="13">
-        <v>10.25</v>
-      </c>
-      <c r="F33" s="14">
-        <f>6*E33</f>
-        <v>61.5</v>
-      </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="27">
-        <f>+F33*G33</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="26"/>
+    <row r="33" spans="1:15" ht="18.3" x14ac:dyDescent="0.3">
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>15</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="13">
-        <v>11.5</v>
-      </c>
-      <c r="F34" s="14">
-        <f>6*E34</f>
-        <v>69</v>
-      </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="27">
-        <f>+F34*G34</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="26"/>
+    <row r="34" spans="1:15" ht="18.3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="11">
+        <v>8.65</v>
+      </c>
+      <c r="F34" s="12">
+        <f>E34*6</f>
+        <v>51.900000000000006</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="24">
+        <f>H34*E34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="23"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>14</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="13">
-        <v>12.75</v>
-      </c>
-      <c r="F35" s="14">
-        <f>6*E35</f>
-        <v>76.5</v>
-      </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="27">
+    <row r="35" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="11">
+        <v>9.25</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" ref="F35:F39" si="6">E35*6</f>
+        <v>55.5</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="41">
         <f>+F35*G35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="26"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>13</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="13">
-        <v>18.95</v>
-      </c>
-      <c r="F36" s="14">
-        <f>6*E36</f>
-        <v>113.69999999999999</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="27">
-        <f>+F36*G36</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="26"/>
+    <row r="36" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="6"/>
+        <v>56.400000000000006</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="41">
+        <f t="shared" ref="I36" si="7">+F36*G36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="23"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-    </row>
-    <row r="38" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>11</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="13">
-        <v>17.95</v>
-      </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="27">
-        <f>H38*E38</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="26"/>
+    <row r="37" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="11">
+        <v>11.95</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="6"/>
+        <v>71.699999999999989</v>
+      </c>
+      <c r="G37" s="40"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="41">
+        <f>+F37*G37</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="23"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="11">
+        <v>12.75</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="6"/>
+        <v>76.5</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="41">
+        <f>+F38*G38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="23"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>10</v>
-      </c>
-      <c r="B39" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="13">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="F39" s="14">
-        <f t="shared" ref="F39" si="3">6*E39</f>
-        <v>53.699999999999996</v>
-      </c>
-      <c r="G39" s="45"/>
+    <row r="39" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="11">
+        <v>19.95</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="6"/>
+        <v>119.69999999999999</v>
+      </c>
+      <c r="G39" s="40"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="46">
-        <f t="shared" ref="I39" si="4">+F39*G39</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="26"/>
+      <c r="I39" s="41">
+        <f t="shared" ref="I39" si="8">+F39*G39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="23"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>9</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="13">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="F40" s="14">
-        <f>6*E40</f>
-        <v>53.699999999999996</v>
-      </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="46">
-        <f>+F40*G40</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>8</v>
-      </c>
-      <c r="B41" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="13">
-        <v>11.25</v>
-      </c>
-      <c r="F41" s="14">
-        <f t="shared" ref="F41" si="5">6*E41</f>
-        <v>67.5</v>
-      </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="46">
-        <f t="shared" ref="I41" si="6">+F41*G41</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="26"/>
+    <row r="40" spans="1:15" s="7" customFormat="1" ht="18.3" x14ac:dyDescent="0.4">
+      <c r="B40" s="64"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="59"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+    </row>
+    <row r="41" spans="1:15" ht="36.549999999999997" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="11">
+        <v>9.25</v>
+      </c>
+      <c r="F41" s="12">
+        <f>E41*6</f>
+        <v>55.5</v>
+      </c>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="24">
+        <f t="shared" ref="I41:I46" si="9">+F41*G41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="23"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
-        <v>7</v>
-      </c>
-      <c r="B42" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="13">
-        <v>11.95</v>
-      </c>
-      <c r="F42" s="14">
-        <f>6*E42</f>
-        <v>71.699999999999989</v>
-      </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="46">
-        <f>+F42*G42</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="26"/>
+    <row r="42" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" ref="F42:F46" si="10">E42*6</f>
+        <v>63</v>
+      </c>
+      <c r="G42" s="35"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="23"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>6</v>
-      </c>
-      <c r="B43" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="13">
-        <v>12.95</v>
-      </c>
-      <c r="F43" s="14">
-        <f>6*E43</f>
-        <v>77.699999999999989</v>
-      </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="46">
-        <f>+F43*G43</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="26"/>
+    <row r="43" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="11">
+        <v>11.25</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="10"/>
+        <v>67.5</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="23"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="1:15" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="68"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-    </row>
-    <row r="45" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
-        <v>1</v>
-      </c>
-      <c r="B45" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="13">
-        <v>18.25</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="27">
-        <f>H45*E45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="26"/>
+    <row r="44" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="G44" s="35"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="23"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="36.549999999999997" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="11">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="10"/>
+        <v>111.89999999999999</v>
+      </c>
+      <c r="G45" s="35"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="23"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" spans="1:15" ht="40" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
-        <v>19</v>
-      </c>
-      <c r="B46" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="13">
-        <v>17.95</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="27">
-        <f>H46*E46</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="26"/>
+    <row r="46" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F46" s="12">
+        <f t="shared" si="10"/>
+        <v>116.39999999999999</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="23"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="37"/>
+    <row r="47" spans="1:15" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" spans="1:15" ht="36.549999999999997" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="11">
+        <v>17.95</v>
+      </c>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="24">
+        <f>H48*E48</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="23"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" spans="1:15" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="18.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
-      <c r="B49" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="5">
-        <f>SUM(G31:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <f>SUM(H31:H46)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="63">
-        <f>SUM(I31:I46)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
-        <f>SUM(J31:J46)</f>
-        <v>0</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" spans="1:15" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="18.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="34"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:15" ht="10.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="B51" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="5">
+        <f>SUM(G34:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <f>H32+H48</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="55">
+        <f>SUM(I32:I48)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="83">
+        <f>SUM(J42:J48)</f>
+        <v>0</v>
+      </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" spans="1:15" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="85">
-        <f>G52</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="86"/>
+    <row r="52" spans="1:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
     </row>
-    <row r="53" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2788,112 +2883,117 @@
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
     </row>
-    <row r="54" spans="1:15" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+    <row r="54" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="49"/>
+      <c r="B54" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="75">
+        <f>G54</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="76"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
     </row>
-    <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="9.8000000000000007" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="37"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="9.8000000000000007" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
-      <c r="B56" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="5">
-        <f>G49+G27</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <f>H49+H27</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="63">
-        <f>I27+I49+I52</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="5">
-        <f>J49+J27</f>
-        <v>0</v>
-      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="20.95" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="34"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="20.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="B58" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="5">
+        <f>G51+G28</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <f>H51+H28</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="55">
+        <f>I28+I51+I54</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="83">
+        <f>J51+J28</f>
+        <v>0</v>
+      </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2910,7 +3010,7 @@
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2927,7 +3027,7 @@
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2944,7 +3044,7 @@
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2961,9 +3061,43 @@
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
     </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B54:F54"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
@@ -2974,19 +3108,7 @@
     <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>